--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-05_end.xlsx
@@ -624,7 +624,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Texas"]   "As long as we get to the destination, any route can be taken." That's one of our mottos here at Penguin Logistics.
+    <t xml:space="preserve">[name="Texas"]   'As long as we get to the destination, any route can be taken.' That's one of our mottos here at Penguin Logistics.
 </t>
   </si>
   <si>
